--- a/PANAMÁ/Género/Datos mujer Unicef 2016 Panamá.xlsx
+++ b/PANAMÁ/Género/Datos mujer Unicef 2016 Panamá.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Género\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ECD92C-097A-4CB9-82BF-0AB69FF41469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D549D50-5C1F-4E86-9DCD-EC2162E8A160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{71BF90EA-008F-4BFD-8EFD-651FE3C68B7F}"/>
   </bookViews>
@@ -22,12 +22,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t xml:space="preserve">
 Esperanza de vida: mujeres como % de hombres 2015</t>
@@ -65,12 +74,6 @@
     <t>Atención al parto (%): Cesárea 2010-2015*</t>
   </si>
   <si>
-    <t>Control de salud posparto (%) + para recién nacidos 2010-2015*</t>
-  </si>
-  <si>
-    <t>Control de salud posparto (%) + para madres 2011-2016*</t>
-  </si>
-  <si>
     <t>Razón de mortalidad materna † Reportados 2010-2015*</t>
   </si>
   <si>
@@ -569,79 +572,103 @@
     <t>Cantidad</t>
   </si>
   <si>
-    <t xml:space="preserve">Esperanza de vida: </t>
-  </si>
-  <si>
-    <t>mujeres como % de hombres 2015</t>
-  </si>
-  <si>
     <t>Tasa de alfabetización de adultos</t>
   </si>
   <si>
-    <t>mujeres como % de hombres  2009-2014*</t>
-  </si>
-  <si>
-    <t>Ratios de matrícula:</t>
-  </si>
-  <si>
     <t>Tasa de supervivencia hasta el último grado de primaria</t>
   </si>
   <si>
-    <t>mujeres como% de hombres 2010-2014*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuidado prenatal (%): </t>
-  </si>
-  <si>
-    <t>Al menos una visita 2010-2015*</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prevalencia de anticonceptivos (%) </t>
   </si>
   <si>
     <t>2010-2015*</t>
   </si>
   <si>
-    <t>Al menos cuatro visitas 2011-2016*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atención al parto (%): </t>
-  </si>
-  <si>
-    <t>Asistente de parto calificado 2010-2015*</t>
-  </si>
-  <si>
-    <t>Cesárea 2010-2015*</t>
-  </si>
-  <si>
-    <t>Parto en institución 2011-2016*</t>
-  </si>
-  <si>
     <t xml:space="preserve">Control de salud posparto (%) </t>
   </si>
   <si>
-    <t>+ para recién nacidos 2010-2015*</t>
-  </si>
-  <si>
-    <t>+ para madres 2011-2016*</t>
-  </si>
-  <si>
     <t xml:space="preserve">Razón de mortalidad materna </t>
   </si>
   <si>
-    <t>† Reportados 2010-2015*</t>
-  </si>
-  <si>
-    <t>† Ajustados 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> † Riesgo de por vida de muerte materna (1 en :) 2015</t>
-  </si>
-  <si>
-    <t>mujeres como % de hombres:Tasa bruta de matriculación primaria 2010-2014*</t>
-  </si>
-  <si>
-    <t>mujeres como % de hombres:Tasa bruta de matriculación secundaria 2011–2016*</t>
+    <t>Control de salud posparto (%) †  para recién nacidos 2010-2015*</t>
+  </si>
+  <si>
+    <t>Control de salud posparto (%) † para madres 2011-2016*</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>2009-2014*</t>
+  </si>
+  <si>
+    <t>2010-2014*</t>
+  </si>
+  <si>
+    <t>2011–2016*</t>
+  </si>
+  <si>
+    <t>Esperanza de vida</t>
+  </si>
+  <si>
+    <t>Ratios de matrícula</t>
+  </si>
+  <si>
+    <t>Cuidado prenatal (%)</t>
+  </si>
+  <si>
+    <t>Atención al parto (%)</t>
+  </si>
+  <si>
+    <t>mujeres como % de hombres</t>
+  </si>
+  <si>
+    <t>Sub Categoría</t>
+  </si>
+  <si>
+    <t>Sub Variable</t>
+  </si>
+  <si>
+    <t>Tasa bruta de matriculación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa bruta de matriculación </t>
+  </si>
+  <si>
+    <t>secundaria</t>
+  </si>
+  <si>
+    <t>primaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al menos una visita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al menos cuatro visitas </t>
+  </si>
+  <si>
+    <t>Asistente de parto calificado</t>
+  </si>
+  <si>
+    <t>Parto en institución</t>
+  </si>
+  <si>
+    <t>Cesárea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ para recién nacidos </t>
+  </si>
+  <si>
+    <t>+ para madres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">† Reportados </t>
+  </si>
+  <si>
+    <t>† Ajustados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">† Riesgo de por vida de muerte materna (1 en :) </t>
   </si>
 </sst>
 </file>
@@ -729,7 +756,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -763,13 +790,14 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,7 +806,10 @@
     <cellStyle name="Normal 5 2" xfId="4" xr:uid="{F109029B-D6C6-405D-9CF9-BC4D86523523}"/>
     <cellStyle name="Normal 8" xfId="3" xr:uid="{09EF9C08-E742-4E51-90F7-FDE54AE65096}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -819,12 +850,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A75C0AC2-6A5B-4E3A-B9FD-FA07C483CC0B}" name="Tabla1" displayName="Tabla1" ref="A1:C17" totalsRowShown="0">
-  <autoFilter ref="A1:C17" xr:uid="{D9EC3F22-1A34-44C2-8C5A-766B7E7EEBC3}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A75C0AC2-6A5B-4E3A-B9FD-FA07C483CC0B}" name="Tabla1" displayName="Tabla1" ref="A1:F17" totalsRowShown="0">
+  <autoFilter ref="A1:F17" xr:uid="{D9EC3F22-1A34-44C2-8C5A-766B7E7EEBC3}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1EEAA214-26F0-4837-AA1F-EBDEAC18C44C}" name="Categoría"/>
-    <tableColumn id="2" xr3:uid="{C522543D-7A5C-4DA0-8DBC-3F984DA887FF}" name="Variable"/>
-    <tableColumn id="3" xr3:uid="{3AE5D364-F451-4897-B90E-5DA0A1426948}" name="Cantidad" dataDxfId="0" dataCellStyle="Normal 8"/>
+    <tableColumn id="5" xr3:uid="{6553E03B-D370-4F41-8542-5227E9589AC9}" name="Sub Categoría"/>
+    <tableColumn id="2" xr3:uid="{C522543D-7A5C-4DA0-8DBC-3F984DA887FF}" name="Variable" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{A945D770-4543-4D8D-8FF4-04E38E07AC07}" name="Sub Variable"/>
+    <tableColumn id="4" xr3:uid="{95F79B82-91B9-44FA-B7E5-0F01B8C32426}" name="Fecha"/>
+    <tableColumn id="3" xr3:uid="{3AE5D364-F451-4897-B90E-5DA0A1426948}" name="Cantidad" dataDxfId="1" dataCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1130,7 +1164,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,19 +1204,19 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1199,7 +1233,7 @@
         <v>106.32180352551957</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3">
         <v>62.8</v>
@@ -1242,199 +1276,266 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D36D26-8FB5-4BD4-8F64-6FDEB7B22390}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="1" max="2" width="47.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="18" customWidth="1"/>
+    <col min="4" max="5" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2">
+        <v>2015</v>
+      </c>
+      <c r="F2" s="3">
+        <v>108.07816196420694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="3">
+        <v>98.709559468076506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="3">
+        <v>97.089559537352073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="3">
+        <v>106.32180352551957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E7" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="3">
-        <v>108.07816196420694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F7" s="3">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3">
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="3">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="3">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="3">
+        <v>91.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="3">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C13" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="3">
-        <v>98.709559468076506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="3">
-        <v>97.089559537352073</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="3">
-        <v>106.32180352551957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="3">
-        <v>62.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="3">
-        <v>93.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="3">
-        <v>87.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="3">
-        <v>91.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="3">
-        <v>91.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="3">
-        <v>27.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="17">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="17">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="17">
+      <c r="C15" s="18" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="17">
+        <v>56</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16">
+        <v>2015</v>
+      </c>
+      <c r="F16" s="15">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="17">
+        <v>56</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17">
+        <v>2015</v>
+      </c>
+      <c r="F17" s="15">
         <v>420</v>
       </c>
     </row>
@@ -1451,14 +1552,14 @@
   <dimension ref="A1:AD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1492,7 +1593,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1526,7 +1627,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1560,7 +1661,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1594,7 +1695,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1628,7 +1729,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1661,38 +1762,38 @@
       <c r="AD6" s="5"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
+      <c r="A7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
@@ -1728,7 +1829,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1762,7 +1863,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1796,7 +1897,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1830,7 +1931,7 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1864,7 +1965,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1898,7 +1999,7 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1932,7 +2033,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1966,7 +2067,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2000,7 +2101,7 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2034,7 +2135,7 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2068,7 +2169,7 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2102,7 +2203,7 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2136,7 +2237,7 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2170,7 +2271,7 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2204,7 +2305,7 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2270,7 +2371,7 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2304,7 +2405,7 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2338,7 +2439,7 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -2372,7 +2473,7 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -2406,7 +2507,7 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -2440,7 +2541,7 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2474,7 +2575,7 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -2508,7 +2609,7 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2542,7 +2643,7 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2576,7 +2677,7 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2610,7 +2711,7 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
